--- a/Driver/Driver_PwtrBlkset_V1_Spec.xlsx
+++ b/Driver/Driver_PwtrBlkset_V1_Spec.xlsx
@@ -5,23 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nishito\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel_20171020_18a\Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ring\nas827\個人フォルダ\西頭\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel\Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OvView" sheetId="7" r:id="rId1"/>
-    <sheet name="InSignal" sheetId="2" r:id="rId2"/>
+    <sheet name="InSignal" sheetId="8" r:id="rId2"/>
     <sheet name="OutSignal" sheetId="3" r:id="rId3"/>
     <sheet name="Signal" sheetId="4" r:id="rId4"/>
     <sheet name="Parameter" sheetId="5" r:id="rId5"/>
     <sheet name="Bus" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Simulink_requirement_item_1" localSheetId="0">#REF!</definedName>
     <definedName name="Simulink_requirement_item_2" localSheetId="0">#REF!</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>Inport Name</t>
   </si>
@@ -533,6 +530,12 @@
       <t>レキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>Vehicle_sensor</t>
   </si>
 </sst>
 </file>
@@ -712,27 +715,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="OvView"/>
-      <sheetName val="InSignal"/>
-      <sheetName val="OutSignal"/>
-      <sheetName val="Model_List"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
@@ -1683,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1716,6 +1698,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -1730,9 +1715,6 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C4">
@@ -1744,9 +1726,6 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5">
@@ -1758,9 +1737,6 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C6">
@@ -1772,14 +1748,14 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
@@ -1797,9 +1773,6 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C9">
@@ -1811,9 +1784,6 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C10">
@@ -1825,9 +1795,6 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11">
@@ -1839,9 +1806,6 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12">
@@ -1853,9 +1817,6 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13">
@@ -1867,9 +1828,6 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C14">
@@ -1881,9 +1839,6 @@
       <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C15">
@@ -1894,9 +1849,6 @@
       </c>
       <c r="E15" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2123,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Driver/Driver_PwtrBlkset_V1_Spec.xlsx
+++ b/Driver/Driver_PwtrBlkset_V1_Spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ring\nas827\個人フォルダ\西頭\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel\Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nishito\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel\Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OvView" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>Inport Name</t>
   </si>
@@ -536,6 +536,35 @@
   </si>
   <si>
     <t>Vehicle_sensor</t>
+  </si>
+  <si>
+    <t>CruiseSw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートクルーズスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CruiseSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルーズ目標車両速度</t>
+    <rPh sb="4" eb="6">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>km/h</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1665,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -2120,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2233,6 +2262,40 @@
         <v>59</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Driver/Driver_PwtrBlkset_V1_Spec.xlsx
+++ b/Driver/Driver_PwtrBlkset_V1_Spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nishito\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel\Driver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ring\nas827\個人フォルダ\西頭\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel\Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OvView" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>Inport Name</t>
   </si>
@@ -536,35 +536,6 @@
   </si>
   <si>
     <t>Vehicle_sensor</t>
-  </si>
-  <si>
-    <t>CruiseSw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オートクルーズスイッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CruiseSpeed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クルーズ目標車両速度</t>
-    <rPh sb="4" eb="6">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シャリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>km/h</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1694,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -2149,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2262,40 +2233,6 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
